--- a/【数据库更新】/专题数据/同业存单净融资量/cd.xlsx
+++ b/【数据库更新】/专题数据/同业存单净融资量/cd.xlsx
@@ -519,28 +519,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4">
-        <v>44354</v>
+        <v>44389</v>
       </c>
       <c r="B2" s="4">
-        <v>44360</v>
+        <v>44395</v>
       </c>
       <c r="C2" s="5">
-        <v>2648.3</v>
+        <v>4598.800000000001</v>
       </c>
       <c r="D2" s="6">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="E2" s="5">
-        <v>4894.999999999999</v>
+        <v>2759.5999999999995</v>
       </c>
       <c r="F2" s="5">
-        <v>-2246.699999999999</v>
+        <v>1839.2000000000016</v>
       </c>
       <c r="G2" s="5">
-        <v>4894.999999999999</v>
+        <v>2759.5999999999995</v>
       </c>
       <c r="H2" s="6">
-        <v>642</v>
+        <v>569</v>
       </c>
       <c r="I2" s="5">
         <v/>
@@ -563,28 +563,28 @@
     </row>
     <row r="3">
       <c r="A3" s="4">
-        <v>44347</v>
+        <v>44382</v>
       </c>
       <c r="B3" s="4">
-        <v>44353</v>
+        <v>44388</v>
       </c>
       <c r="C3" s="5">
-        <v>3596.000000000001</v>
+        <v>3460.0000000000014</v>
       </c>
       <c r="D3" s="6">
-        <v>573</v>
+        <v>654</v>
       </c>
       <c r="E3" s="5">
-        <v>2600.9999999999995</v>
+        <v>2075.9999999999995</v>
       </c>
       <c r="F3" s="5">
-        <v>995.0000000000014</v>
+        <v>1384.0000000000018</v>
       </c>
       <c r="G3" s="5">
-        <v>2600.9999999999995</v>
+        <v>2075.9999999999995</v>
       </c>
       <c r="H3" s="6">
-        <v>507</v>
+        <v>407</v>
       </c>
       <c r="I3" s="5">
         <v/>
@@ -607,28 +607,28 @@
     </row>
     <row r="4">
       <c r="A4" s="4">
-        <v>44340</v>
+        <v>44375</v>
       </c>
       <c r="B4" s="4">
-        <v>44346</v>
+        <v>44381</v>
       </c>
       <c r="C4" s="5">
-        <v>4155.500000000005</v>
+        <v>1514.5000000000005</v>
       </c>
       <c r="D4" s="6">
-        <v>650</v>
+        <v>356</v>
       </c>
       <c r="E4" s="5">
-        <v>4913.600000000001</v>
+        <v>2537.0000000000005</v>
       </c>
       <c r="F4" s="5">
-        <v>-758.0999999999967</v>
+        <v>-1022.5</v>
       </c>
       <c r="G4" s="5">
-        <v>4913.600000000001</v>
+        <v>2537.0000000000005</v>
       </c>
       <c r="H4" s="6">
-        <v>663</v>
+        <v>398</v>
       </c>
       <c r="I4" s="5">
         <v/>
@@ -651,28 +651,28 @@
     </row>
     <row r="5">
       <c r="A5" s="4">
-        <v>44333</v>
+        <v>44368</v>
       </c>
       <c r="B5" s="4">
-        <v>44339</v>
+        <v>44374</v>
       </c>
       <c r="C5" s="5">
-        <v>6248.400000000002</v>
+        <v>4654.900000000002</v>
       </c>
       <c r="D5" s="6">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="E5" s="5">
-        <v>4419.199999999998</v>
+        <v>3093.600000000001</v>
       </c>
       <c r="F5" s="5">
-        <v>1829.2000000000044</v>
+        <v>1561.3000000000015</v>
       </c>
       <c r="G5" s="5">
-        <v>4419.199999999998</v>
+        <v>3093.600000000001</v>
       </c>
       <c r="H5" s="6">
-        <v>660</v>
+        <v>541</v>
       </c>
       <c r="I5" s="5">
         <v/>
@@ -695,28 +695,28 @@
     </row>
     <row r="6">
       <c r="A6" s="4">
-        <v>44326</v>
+        <v>44361</v>
       </c>
       <c r="B6" s="4">
-        <v>44332</v>
+        <v>44367</v>
       </c>
       <c r="C6" s="5">
-        <v>5391.200000000002</v>
+        <v>2864.2000000000016</v>
       </c>
       <c r="D6" s="6">
-        <v>686</v>
+        <v>493</v>
       </c>
       <c r="E6" s="5">
-        <v>4883.3</v>
+        <v>3951.6000000000017</v>
       </c>
       <c r="F6" s="5">
-        <v>507.90000000000146</v>
+        <v>-1087.4</v>
       </c>
       <c r="G6" s="5">
-        <v>4883.3</v>
+        <v>3951.6000000000017</v>
       </c>
       <c r="H6" s="6">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I6" s="5">
         <v/>
@@ -739,28 +739,28 @@
     </row>
     <row r="7">
       <c r="A7" s="4">
-        <v>44319</v>
+        <v>44354</v>
       </c>
       <c r="B7" s="4">
-        <v>44325</v>
+        <v>44360</v>
       </c>
       <c r="C7" s="5">
-        <v>2155.4000000000005</v>
+        <v>2438.999999999999</v>
       </c>
       <c r="D7" s="6">
-        <v>326</v>
+        <v>544</v>
       </c>
       <c r="E7" s="5">
-        <v>1966.6</v>
+        <v>4894.999999999999</v>
       </c>
       <c r="F7" s="5">
-        <v>188.80000000000064</v>
+        <v>-2456</v>
       </c>
       <c r="G7" s="5">
-        <v>1966.6</v>
+        <v>4894.999999999999</v>
       </c>
       <c r="H7" s="6">
-        <v>514</v>
+        <v>642</v>
       </c>
       <c r="I7" s="5">
         <v/>
@@ -783,28 +783,28 @@
     </row>
     <row r="8">
       <c r="A8" s="4">
-        <v>44312</v>
+        <v>44347</v>
       </c>
       <c r="B8" s="4">
-        <v>44318</v>
+        <v>44353</v>
       </c>
       <c r="C8" s="5">
-        <v>3456.000000000003</v>
+        <v>3482.700000000001</v>
       </c>
       <c r="D8" s="6">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="E8" s="5">
-        <v>6193.200000000002</v>
+        <v>2600.9999999999995</v>
       </c>
       <c r="F8" s="5">
-        <v>-2737.1999999999985</v>
+        <v>881.7000000000016</v>
       </c>
       <c r="G8" s="5">
-        <v>6193.200000000002</v>
+        <v>2600.9999999999995</v>
       </c>
       <c r="H8" s="6">
-        <v>580</v>
+        <v>507</v>
       </c>
       <c r="I8" s="5">
         <v/>
@@ -827,28 +827,28 @@
     </row>
     <row r="9">
       <c r="A9" s="4">
-        <v>44305</v>
+        <v>44340</v>
       </c>
       <c r="B9" s="4">
-        <v>44311</v>
+        <v>44346</v>
       </c>
       <c r="C9" s="5">
-        <v>6382.4</v>
+        <v>4155.500000000005</v>
       </c>
       <c r="D9" s="6">
-        <v>737</v>
+        <v>650</v>
       </c>
       <c r="E9" s="5">
-        <v>4632.7000000000035</v>
+        <v>4913.600000000001</v>
       </c>
       <c r="F9" s="5">
-        <v>1749.6999999999962</v>
+        <v>-758.0999999999967</v>
       </c>
       <c r="G9" s="5">
-        <v>4632.7000000000035</v>
+        <v>4913.600000000001</v>
       </c>
       <c r="H9" s="6">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="I9" s="5">
         <v/>
@@ -871,28 +871,28 @@
     </row>
     <row r="10">
       <c r="A10" s="4">
-        <v>44298</v>
+        <v>44333</v>
       </c>
       <c r="B10" s="4">
-        <v>44304</v>
+        <v>44339</v>
       </c>
       <c r="C10" s="5">
-        <v>5474.100000000001</v>
+        <v>6248.400000000002</v>
       </c>
       <c r="D10" s="6">
-        <v>653</v>
+        <v>704</v>
       </c>
       <c r="E10" s="5">
-        <v>2927.2000000000016</v>
+        <v>4419.199999999998</v>
       </c>
       <c r="F10" s="5">
-        <v>2546.8999999999996</v>
+        <v>1829.2000000000044</v>
       </c>
       <c r="G10" s="5">
-        <v>2927.2000000000016</v>
+        <v>4419.199999999998</v>
       </c>
       <c r="H10" s="6">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="I10" s="5">
         <v/>
@@ -915,28 +915,28 @@
     </row>
     <row r="11">
       <c r="A11" s="4">
-        <v>44291</v>
+        <v>44326</v>
       </c>
       <c r="B11" s="4">
-        <v>44297</v>
+        <v>44332</v>
       </c>
       <c r="C11" s="5">
-        <v>4372.000000000001</v>
+        <v>5391.200000000002</v>
       </c>
       <c r="D11" s="6">
-        <v>561</v>
+        <v>686</v>
       </c>
       <c r="E11" s="5">
-        <v>2625.9000000000015</v>
+        <v>4883.3</v>
       </c>
       <c r="F11" s="5">
-        <v>1746.0999999999995</v>
+        <v>507.90000000000146</v>
       </c>
       <c r="G11" s="5">
-        <v>2625.9000000000015</v>
+        <v>4883.3</v>
       </c>
       <c r="H11" s="6">
-        <v>373</v>
+        <v>607</v>
       </c>
       <c r="I11" s="5">
         <v/>
@@ -959,28 +959,28 @@
     </row>
     <row r="12">
       <c r="A12" s="4">
-        <v>44284</v>
+        <v>44319</v>
       </c>
       <c r="B12" s="4">
-        <v>44290</v>
+        <v>44325</v>
       </c>
       <c r="C12" s="5">
-        <v>2601.4000000000033</v>
+        <v>2155.4000000000005</v>
       </c>
       <c r="D12" s="6">
-        <v>471</v>
+        <v>326</v>
       </c>
       <c r="E12" s="5">
-        <v>1769.9999999999982</v>
+        <v>1966.6</v>
       </c>
       <c r="F12" s="5">
-        <v>831.4000000000051</v>
+        <v>188.80000000000064</v>
       </c>
       <c r="G12" s="5">
-        <v>1769.9999999999982</v>
+        <v>1966.6</v>
       </c>
       <c r="H12" s="6">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="I12" s="5">
         <v/>
@@ -1003,28 +1003,28 @@
     </row>
     <row r="13">
       <c r="A13" s="4">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="B13" s="4">
-        <v>44283</v>
+        <v>44318</v>
       </c>
       <c r="C13" s="5">
-        <v>3960.900000000002</v>
+        <v>3456.000000000003</v>
       </c>
       <c r="D13" s="6">
-        <v>663</v>
+        <v>483</v>
       </c>
       <c r="E13" s="5">
-        <v>4012.300000000001</v>
+        <v>6193.200000000002</v>
       </c>
       <c r="F13" s="5">
-        <v>-51.39999999999918</v>
+        <v>-2737.1999999999985</v>
       </c>
       <c r="G13" s="5">
-        <v>4012.300000000001</v>
+        <v>6193.200000000002</v>
       </c>
       <c r="H13" s="6">
-        <v>638</v>
+        <v>580</v>
       </c>
       <c r="I13" s="5">
         <v/>
@@ -1047,28 +1047,28 @@
     </row>
     <row r="14">
       <c r="A14" s="4">
-        <v>44270</v>
+        <v>44305</v>
       </c>
       <c r="B14" s="4">
-        <v>44276</v>
+        <v>44311</v>
       </c>
       <c r="C14" s="5">
-        <v>4782.800000000003</v>
+        <v>6382.4</v>
       </c>
       <c r="D14" s="6">
-        <v>696</v>
+        <v>737</v>
       </c>
       <c r="E14" s="5">
-        <v>6017.500000000003</v>
+        <v>4632.7000000000035</v>
       </c>
       <c r="F14" s="5">
-        <v>-1234.6999999999998</v>
+        <v>1749.6999999999962</v>
       </c>
       <c r="G14" s="5">
-        <v>6017.500000000003</v>
+        <v>4632.7000000000035</v>
       </c>
       <c r="H14" s="6">
-        <v>613</v>
+        <v>680</v>
       </c>
       <c r="I14" s="5">
         <v/>
@@ -1091,28 +1091,28 @@
     </row>
     <row r="15">
       <c r="A15" s="4">
-        <v>44263</v>
+        <v>44298</v>
       </c>
       <c r="B15" s="4">
-        <v>44269</v>
+        <v>44304</v>
       </c>
       <c r="C15" s="5">
-        <v>7171.600000000007</v>
+        <v>5474.100000000001</v>
       </c>
       <c r="D15" s="6">
-        <v>863</v>
+        <v>653</v>
       </c>
       <c r="E15" s="5">
-        <v>5179.2</v>
+        <v>2927.2000000000016</v>
       </c>
       <c r="F15" s="5">
-        <v>1992.400000000007</v>
+        <v>2546.8999999999996</v>
       </c>
       <c r="G15" s="5">
-        <v>5179.2</v>
+        <v>2927.2000000000016</v>
       </c>
       <c r="H15" s="6">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="I15" s="5">
         <v/>
@@ -1135,28 +1135,28 @@
     </row>
     <row r="16">
       <c r="A16" s="4">
-        <v>44256</v>
+        <v>44291</v>
       </c>
       <c r="B16" s="4">
-        <v>44262</v>
+        <v>44297</v>
       </c>
       <c r="C16" s="5">
-        <v>7201.500000000007</v>
+        <v>4372.000000000001</v>
       </c>
       <c r="D16" s="6">
-        <v>879</v>
+        <v>561</v>
       </c>
       <c r="E16" s="5">
-        <v>4278.999999999999</v>
+        <v>2625.9000000000015</v>
       </c>
       <c r="F16" s="5">
-        <v>2922.500000000008</v>
+        <v>1746.0999999999995</v>
       </c>
       <c r="G16" s="5">
-        <v>4278.999999999999</v>
+        <v>2625.9000000000015</v>
       </c>
       <c r="H16" s="6">
-        <v>597</v>
+        <v>373</v>
       </c>
       <c r="I16" s="5">
         <v/>
@@ -1179,28 +1179,28 @@
     </row>
     <row r="17">
       <c r="A17" s="4">
-        <v>44249</v>
+        <v>44284</v>
       </c>
       <c r="B17" s="4">
-        <v>44255</v>
+        <v>44290</v>
       </c>
       <c r="C17" s="5">
-        <v>9986.500000000004</v>
+        <v>2601.4000000000033</v>
       </c>
       <c r="D17" s="6">
-        <v>1005</v>
+        <v>471</v>
       </c>
       <c r="E17" s="5">
-        <v>4538.200000000003</v>
+        <v>1769.9999999999982</v>
       </c>
       <c r="F17" s="5">
-        <v>5448.300000000001</v>
+        <v>831.4000000000051</v>
       </c>
       <c r="G17" s="5">
-        <v>4538.200000000003</v>
+        <v>1769.9999999999982</v>
       </c>
       <c r="H17" s="6">
-        <v>735</v>
+        <v>363</v>
       </c>
       <c r="I17" s="5">
         <v/>
@@ -1223,28 +1223,28 @@
     </row>
     <row r="18">
       <c r="A18" s="4">
-        <v>44242</v>
+        <v>44277</v>
       </c>
       <c r="B18" s="4">
-        <v>44248</v>
+        <v>44283</v>
       </c>
       <c r="C18" s="5">
-        <v>2658.1</v>
+        <v>3960.900000000002</v>
       </c>
       <c r="D18" s="6">
-        <v>418</v>
+        <v>663</v>
       </c>
       <c r="E18" s="5">
-        <v>3391.8999999999996</v>
+        <v>4012.300000000001</v>
       </c>
       <c r="F18" s="5">
-        <v>-733.7999999999997</v>
+        <v>-51.39999999999918</v>
       </c>
       <c r="G18" s="5">
-        <v>3391.8999999999996</v>
+        <v>4012.300000000001</v>
       </c>
       <c r="H18" s="6">
-        <v>530</v>
+        <v>638</v>
       </c>
       <c r="I18" s="5">
         <v/>
@@ -1267,28 +1267,28 @@
     </row>
     <row r="19">
       <c r="A19" s="4">
-        <v>44235</v>
+        <v>44270</v>
       </c>
       <c r="B19" s="4">
-        <v>44241</v>
+        <v>44276</v>
       </c>
       <c r="C19" s="5">
-        <v>4218.899999999999</v>
+        <v>4782.800000000003</v>
       </c>
       <c r="D19" s="6">
-        <v>380</v>
+        <v>696</v>
       </c>
       <c r="E19" s="5">
-        <v>3117.9000000000005</v>
+        <v>6017.500000000003</v>
       </c>
       <c r="F19" s="5">
-        <v>1100.9999999999982</v>
+        <v>-1234.6999999999998</v>
       </c>
       <c r="G19" s="5">
-        <v>3117.9000000000005</v>
+        <v>6017.500000000003</v>
       </c>
       <c r="H19" s="6">
-        <v>474</v>
+        <v>613</v>
       </c>
       <c r="I19" s="5">
         <v/>
@@ -1311,28 +1311,28 @@
     </row>
     <row r="20">
       <c r="A20" s="4">
-        <v>44228</v>
+        <v>44263</v>
       </c>
       <c r="B20" s="4">
-        <v>44234</v>
+        <v>44269</v>
       </c>
       <c r="C20" s="5">
-        <v>2698.700000000001</v>
+        <v>7171.600000000007</v>
       </c>
       <c r="D20" s="6">
-        <v>587</v>
+        <v>863</v>
       </c>
       <c r="E20" s="5">
-        <v>4177.500000000002</v>
+        <v>5179.2</v>
       </c>
       <c r="F20" s="5">
-        <v>-1478.8000000000006</v>
+        <v>1992.400000000007</v>
       </c>
       <c r="G20" s="5">
-        <v>4177.500000000002</v>
+        <v>5179.2</v>
       </c>
       <c r="H20" s="6">
-        <v>392</v>
+        <v>616</v>
       </c>
       <c r="I20" s="5">
         <v/>
@@ -1355,28 +1355,28 @@
     </row>
     <row r="21">
       <c r="A21" s="4">
-        <v>44221</v>
+        <v>44256</v>
       </c>
       <c r="B21" s="4">
-        <v>44227</v>
+        <v>44262</v>
       </c>
       <c r="C21" s="5">
-        <v>4074.3999999999996</v>
+        <v>7201.500000000007</v>
       </c>
       <c r="D21" s="6">
-        <v>404</v>
+        <v>879</v>
       </c>
       <c r="E21" s="5">
-        <v>3024.4999999999995</v>
+        <v>4278.999999999999</v>
       </c>
       <c r="F21" s="5">
-        <v>1049.9</v>
+        <v>2922.500000000008</v>
       </c>
       <c r="G21" s="5">
-        <v>3024.4999999999995</v>
+        <v>4278.999999999999</v>
       </c>
       <c r="H21" s="6">
-        <v>392</v>
+        <v>597</v>
       </c>
       <c r="I21" s="5">
         <v/>
@@ -1399,28 +1399,28 @@
     </row>
     <row r="22">
       <c r="A22" s="4">
-        <v>44214</v>
+        <v>44249</v>
       </c>
       <c r="B22" s="4">
-        <v>44220</v>
+        <v>44255</v>
       </c>
       <c r="C22" s="5">
-        <v>3066.999999999998</v>
+        <v>9986.500000000004</v>
       </c>
       <c r="D22" s="6">
-        <v>539</v>
+        <v>1005</v>
       </c>
       <c r="E22" s="5">
-        <v>4327.500000000002</v>
+        <v>4538.200000000003</v>
       </c>
       <c r="F22" s="5">
-        <v>-1260.5000000000036</v>
+        <v>5448.300000000001</v>
       </c>
       <c r="G22" s="5">
-        <v>4327.500000000002</v>
+        <v>4538.200000000003</v>
       </c>
       <c r="H22" s="6">
-        <v>528</v>
+        <v>735</v>
       </c>
       <c r="I22" s="5">
         <v/>
@@ -1443,28 +1443,28 @@
     </row>
     <row r="23">
       <c r="A23" s="4">
-        <v>44207</v>
+        <v>44242</v>
       </c>
       <c r="B23" s="4">
-        <v>44213</v>
+        <v>44248</v>
       </c>
       <c r="C23" s="5">
-        <v>2700.3</v>
+        <v>2658.1</v>
       </c>
       <c r="D23" s="6">
-        <v>569</v>
+        <v>418</v>
       </c>
       <c r="E23" s="5">
-        <v>2655.3999999999983</v>
+        <v>3391.8999999999996</v>
       </c>
       <c r="F23" s="5">
-        <v>44.90000000000191</v>
+        <v>-733.7999999999997</v>
       </c>
       <c r="G23" s="5">
-        <v>2655.3999999999983</v>
+        <v>3391.8999999999996</v>
       </c>
       <c r="H23" s="6">
-        <v>421</v>
+        <v>530</v>
       </c>
       <c r="I23" s="5">
         <v/>
@@ -1487,28 +1487,28 @@
     </row>
     <row r="24">
       <c r="A24" s="4">
-        <v>44200</v>
+        <v>44235</v>
       </c>
       <c r="B24" s="4">
-        <v>44206</v>
+        <v>44241</v>
       </c>
       <c r="C24" s="5">
-        <v>1711.2000000000007</v>
+        <v>4218.899999999999</v>
       </c>
       <c r="D24" s="6">
-        <v>213</v>
+        <v>380</v>
       </c>
       <c r="E24" s="5">
-        <v>1507.7</v>
+        <v>3117.9000000000005</v>
       </c>
       <c r="F24" s="5">
-        <v>203.50000000000068</v>
+        <v>1100.9999999999982</v>
       </c>
       <c r="G24" s="5">
-        <v>1507.7</v>
+        <v>3117.9000000000005</v>
       </c>
       <c r="H24" s="6">
-        <v>245</v>
+        <v>474</v>
       </c>
       <c r="I24" s="5">
         <v/>
@@ -1531,28 +1531,28 @@
     </row>
     <row r="25">
       <c r="A25" s="4">
-        <v>44193</v>
+        <v>44228</v>
       </c>
       <c r="B25" s="4">
-        <v>44199</v>
+        <v>44234</v>
       </c>
       <c r="C25" s="5">
-        <v>1351.1</v>
+        <v>2698.700000000001</v>
       </c>
       <c r="D25" s="6">
-        <v>277</v>
+        <v>587</v>
       </c>
       <c r="E25" s="5">
-        <v>1647.0000000000002</v>
+        <v>4177.500000000002</v>
       </c>
       <c r="F25" s="5">
-        <v>-295.9000000000003</v>
+        <v>-1478.8000000000006</v>
       </c>
       <c r="G25" s="5">
-        <v>1647.0000000000002</v>
+        <v>4177.500000000002</v>
       </c>
       <c r="H25" s="6">
-        <v>272</v>
+        <v>392</v>
       </c>
       <c r="I25" s="5">
         <v/>
@@ -1575,28 +1575,28 @@
     </row>
     <row r="26">
       <c r="A26" s="4">
-        <v>44186</v>
+        <v>44221</v>
       </c>
       <c r="B26" s="4">
-        <v>44192</v>
+        <v>44227</v>
       </c>
       <c r="C26" s="5">
-        <v>4193.400000000001</v>
+        <v>4074.3999999999996</v>
       </c>
       <c r="D26" s="6">
-        <v>594</v>
+        <v>404</v>
       </c>
       <c r="E26" s="5">
-        <v>3772.100000000003</v>
+        <v>3024.4999999999995</v>
       </c>
       <c r="F26" s="5">
-        <v>421.29999999999745</v>
+        <v>1049.9</v>
       </c>
       <c r="G26" s="5">
-        <v>3772.100000000003</v>
+        <v>3024.4999999999995</v>
       </c>
       <c r="H26" s="6">
-        <v>569</v>
+        <v>392</v>
       </c>
       <c r="I26" s="5">
         <v/>
@@ -1619,28 +1619,28 @@
     </row>
     <row r="27">
       <c r="A27" s="4">
-        <v>44179</v>
+        <v>44214</v>
       </c>
       <c r="B27" s="4">
-        <v>44185</v>
+        <v>44220</v>
       </c>
       <c r="C27" s="5">
-        <v>3045.9000000000005</v>
+        <v>3066.999999999998</v>
       </c>
       <c r="D27" s="6">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="E27" s="5">
-        <v>5936.300000000004</v>
+        <v>4327.500000000002</v>
       </c>
       <c r="F27" s="5">
-        <v>-2890.4000000000033</v>
+        <v>-1260.5000000000036</v>
       </c>
       <c r="G27" s="5">
-        <v>5936.300000000004</v>
+        <v>4327.500000000002</v>
       </c>
       <c r="H27" s="6">
-        <v>642</v>
+        <v>528</v>
       </c>
       <c r="I27" s="5">
         <v/>
@@ -1663,28 +1663,28 @@
     </row>
     <row r="28">
       <c r="A28" s="4">
-        <v>44172</v>
+        <v>44207</v>
       </c>
       <c r="B28" s="4">
-        <v>44178</v>
+        <v>44213</v>
       </c>
       <c r="C28" s="5">
-        <v>8115.500000000001</v>
+        <v>2700.3</v>
       </c>
       <c r="D28" s="6">
-        <v>801</v>
+        <v>569</v>
       </c>
       <c r="E28" s="5">
-        <v>5332.900000000001</v>
+        <v>2655.3999999999983</v>
       </c>
       <c r="F28" s="5">
-        <v>2782.6000000000004</v>
+        <v>44.90000000000191</v>
       </c>
       <c r="G28" s="5">
-        <v>5332.900000000001</v>
+        <v>2655.3999999999983</v>
       </c>
       <c r="H28" s="6">
-        <v>692</v>
+        <v>421</v>
       </c>
       <c r="I28" s="5">
         <v/>
@@ -1707,28 +1707,28 @@
     </row>
     <row r="29">
       <c r="A29" s="4">
-        <v>44165</v>
+        <v>44200</v>
       </c>
       <c r="B29" s="4">
-        <v>44171</v>
+        <v>44206</v>
       </c>
       <c r="C29" s="5">
-        <v>4190.699999999997</v>
+        <v>1711.2000000000007</v>
       </c>
       <c r="D29" s="6">
-        <v>645</v>
+        <v>213</v>
       </c>
       <c r="E29" s="5">
-        <v>3507.799999999998</v>
+        <v>1507.7</v>
       </c>
       <c r="F29" s="5">
-        <v>682.8999999999992</v>
+        <v>203.50000000000068</v>
       </c>
       <c r="G29" s="5">
-        <v>3507.799999999998</v>
+        <v>1507.7</v>
       </c>
       <c r="H29" s="6">
-        <v>589</v>
+        <v>245</v>
       </c>
       <c r="I29" s="5">
         <v/>
@@ -1751,28 +1751,28 @@
     </row>
     <row r="30">
       <c r="A30" s="4">
-        <v>44158</v>
+        <v>44193</v>
       </c>
       <c r="B30" s="4">
-        <v>44164</v>
+        <v>44199</v>
       </c>
       <c r="C30" s="5">
-        <v>3458.7000000000007</v>
+        <v>1351.1</v>
       </c>
       <c r="D30" s="6">
-        <v>675</v>
+        <v>277</v>
       </c>
       <c r="E30" s="5">
-        <v>3858.4000000000015</v>
+        <v>1647.0000000000002</v>
       </c>
       <c r="F30" s="5">
-        <v>-399.7000000000007</v>
+        <v>-295.9000000000003</v>
       </c>
       <c r="G30" s="5">
-        <v>3858.4000000000015</v>
+        <v>1647.0000000000002</v>
       </c>
       <c r="H30" s="6">
-        <v>709</v>
+        <v>272</v>
       </c>
       <c r="I30" s="5">
         <v/>
@@ -1795,28 +1795,28 @@
     </row>
     <row r="31">
       <c r="A31" s="4">
-        <v>44151</v>
+        <v>44186</v>
       </c>
       <c r="B31" s="4">
-        <v>44157</v>
+        <v>44192</v>
       </c>
       <c r="C31" s="5">
-        <v>3826.0000000000005</v>
+        <v>4193.400000000001</v>
       </c>
       <c r="D31" s="6">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="E31" s="5">
-        <v>5209.399999999998</v>
+        <v>3772.100000000003</v>
       </c>
       <c r="F31" s="5">
-        <v>-1383.3999999999974</v>
+        <v>421.29999999999745</v>
       </c>
       <c r="G31" s="5">
-        <v>5209.399999999998</v>
+        <v>3772.100000000003</v>
       </c>
       <c r="H31" s="6">
-        <v>735</v>
+        <v>569</v>
       </c>
       <c r="I31" s="5">
         <v/>
@@ -1839,28 +1839,28 @@
     </row>
     <row r="32">
       <c r="A32" s="4">
-        <v>44144</v>
+        <v>44179</v>
       </c>
       <c r="B32" s="4">
-        <v>44150</v>
+        <v>44185</v>
       </c>
       <c r="C32" s="5">
-        <v>3898.999999999998</v>
+        <v>3045.9000000000005</v>
       </c>
       <c r="D32" s="6">
-        <v>696</v>
+        <v>558</v>
       </c>
       <c r="E32" s="5">
-        <v>5557.900000000002</v>
+        <v>5936.300000000004</v>
       </c>
       <c r="F32" s="5">
-        <v>-1658.9000000000042</v>
+        <v>-2890.4000000000033</v>
       </c>
       <c r="G32" s="5">
-        <v>5557.900000000002</v>
+        <v>5936.300000000004</v>
       </c>
       <c r="H32" s="6">
-        <v>791</v>
+        <v>642</v>
       </c>
       <c r="I32" s="5">
         <v/>
@@ -1883,28 +1883,28 @@
     </row>
     <row r="33">
       <c r="A33" s="4">
-        <v>44137</v>
+        <v>44172</v>
       </c>
       <c r="B33" s="4">
-        <v>44143</v>
+        <v>44178</v>
       </c>
       <c r="C33" s="5">
-        <v>5824.199999999999</v>
+        <v>8115.500000000001</v>
       </c>
       <c r="D33" s="6">
-        <v>769</v>
+        <v>801</v>
       </c>
       <c r="E33" s="5">
-        <v>3443.4000000000015</v>
+        <v>5332.900000000001</v>
       </c>
       <c r="F33" s="5">
-        <v>2380.7999999999975</v>
+        <v>2782.6000000000004</v>
       </c>
       <c r="G33" s="5">
-        <v>3443.4000000000015</v>
+        <v>5332.900000000001</v>
       </c>
       <c r="H33" s="6">
-        <v>458</v>
+        <v>692</v>
       </c>
       <c r="I33" s="5">
         <v/>
@@ -1927,28 +1927,28 @@
     </row>
     <row r="34">
       <c r="A34" s="4">
-        <v>44130</v>
+        <v>44165</v>
       </c>
       <c r="B34" s="4">
-        <v>44136</v>
+        <v>44171</v>
       </c>
       <c r="C34" s="5">
-        <v>6692.100000000001</v>
+        <v>4190.699999999997</v>
       </c>
       <c r="D34" s="6">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="E34" s="5">
-        <v>4418.800000000002</v>
+        <v>3507.799999999998</v>
       </c>
       <c r="F34" s="5">
-        <v>2273.2999999999993</v>
+        <v>682.8999999999992</v>
       </c>
       <c r="G34" s="5">
-        <v>4418.800000000002</v>
+        <v>3507.799999999998</v>
       </c>
       <c r="H34" s="6">
-        <v>462</v>
+        <v>589</v>
       </c>
       <c r="I34" s="5">
         <v/>
@@ -1971,28 +1971,28 @@
     </row>
     <row r="35">
       <c r="A35" s="4">
-        <v>44123</v>
+        <v>44158</v>
       </c>
       <c r="B35" s="4">
-        <v>44129</v>
+        <v>44164</v>
       </c>
       <c r="C35" s="5">
-        <v>6358.599999999997</v>
+        <v>3458.7000000000007</v>
       </c>
       <c r="D35" s="6">
-        <v>845</v>
+        <v>675</v>
       </c>
       <c r="E35" s="5">
-        <v>7113.499999999999</v>
+        <v>3858.4000000000015</v>
       </c>
       <c r="F35" s="5">
-        <v>-754.9000000000024</v>
+        <v>-399.7000000000007</v>
       </c>
       <c r="G35" s="5">
-        <v>7113.499999999999</v>
+        <v>3858.4000000000015</v>
       </c>
       <c r="H35" s="6">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="I35" s="5">
         <v/>
@@ -2015,28 +2015,28 @@
     </row>
     <row r="36">
       <c r="A36" s="4">
-        <v>44116</v>
+        <v>44151</v>
       </c>
       <c r="B36" s="4">
-        <v>44122</v>
+        <v>44157</v>
       </c>
       <c r="C36" s="5">
-        <v>5015.600000000007</v>
+        <v>3826.0000000000005</v>
       </c>
       <c r="D36" s="6">
-        <v>746</v>
+        <v>619</v>
       </c>
       <c r="E36" s="5">
-        <v>5398.300000000001</v>
+        <v>5209.399999999998</v>
       </c>
       <c r="F36" s="5">
-        <v>-382.69999999999436</v>
+        <v>-1383.3999999999974</v>
       </c>
       <c r="G36" s="5">
-        <v>5398.300000000001</v>
+        <v>5209.399999999998</v>
       </c>
       <c r="H36" s="6">
-        <v>694</v>
+        <v>735</v>
       </c>
       <c r="I36" s="5">
         <v/>
@@ -2059,28 +2059,28 @@
     </row>
     <row r="37">
       <c r="A37" s="4">
-        <v>44109</v>
+        <v>44144</v>
       </c>
       <c r="B37" s="4">
-        <v>44115</v>
+        <v>44150</v>
       </c>
       <c r="C37" s="5">
-        <v>982.3000000000001</v>
+        <v>3898.999999999998</v>
       </c>
       <c r="D37" s="6">
-        <v>149</v>
+        <v>696</v>
       </c>
       <c r="E37" s="5">
-        <v>1720.7000000000003</v>
+        <v>5557.900000000002</v>
       </c>
       <c r="F37" s="5">
-        <v>-738.4000000000002</v>
+        <v>-1658.9000000000042</v>
       </c>
       <c r="G37" s="5">
-        <v>1720.7000000000003</v>
+        <v>5557.900000000002</v>
       </c>
       <c r="H37" s="6">
-        <v>402</v>
+        <v>791</v>
       </c>
       <c r="I37" s="5">
         <v/>
@@ -2103,28 +2103,28 @@
     </row>
     <row r="38">
       <c r="A38" s="4">
-        <v>44102</v>
+        <v>44137</v>
       </c>
       <c r="B38" s="4">
-        <v>44108</v>
+        <v>44143</v>
       </c>
       <c r="C38" s="5">
-        <v>1094.0999999999997</v>
+        <v>5824.199999999999</v>
       </c>
       <c r="D38" s="6">
-        <v>216</v>
+        <v>769</v>
       </c>
       <c r="E38" s="5">
-        <v>2075.100000000001</v>
+        <v>3443.4000000000015</v>
       </c>
       <c r="F38" s="5">
-        <v>-981.0000000000011</v>
+        <v>2380.7999999999975</v>
       </c>
       <c r="G38" s="5">
-        <v>2075.100000000001</v>
+        <v>3443.4000000000015</v>
       </c>
       <c r="H38" s="6">
-        <v>329</v>
+        <v>458</v>
       </c>
       <c r="I38" s="5">
         <v/>
@@ -2147,28 +2147,28 @@
     </row>
     <row r="39">
       <c r="A39" s="4">
-        <v>44095</v>
+        <v>44130</v>
       </c>
       <c r="B39" s="4">
-        <v>44101</v>
+        <v>44136</v>
       </c>
       <c r="C39" s="5">
-        <v>3427.9000000000024</v>
+        <v>6692.100000000001</v>
       </c>
       <c r="D39" s="6">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="E39" s="5">
-        <v>3455.700000000001</v>
+        <v>4418.800000000002</v>
       </c>
       <c r="F39" s="5">
-        <v>-27.799999999998818</v>
+        <v>2273.2999999999993</v>
       </c>
       <c r="G39" s="5">
-        <v>3455.700000000001</v>
+        <v>4418.800000000002</v>
       </c>
       <c r="H39" s="6">
-        <v>556</v>
+        <v>462</v>
       </c>
       <c r="I39" s="5">
         <v/>
@@ -2191,28 +2191,28 @@
     </row>
     <row r="40">
       <c r="A40" s="4">
-        <v>44088</v>
+        <v>44123</v>
       </c>
       <c r="B40" s="4">
-        <v>44094</v>
+        <v>44129</v>
       </c>
       <c r="C40" s="5">
-        <v>5120.700000000004</v>
+        <v>6358.599999999997</v>
       </c>
       <c r="D40" s="6">
-        <v>617</v>
+        <v>845</v>
       </c>
       <c r="E40" s="5">
-        <v>4355.599999999999</v>
+        <v>7113.499999999999</v>
       </c>
       <c r="F40" s="5">
-        <v>765.1000000000049</v>
+        <v>-754.9000000000024</v>
       </c>
       <c r="G40" s="5">
-        <v>4355.599999999999</v>
+        <v>7113.499999999999</v>
       </c>
       <c r="H40" s="6">
-        <v>581</v>
+        <v>708</v>
       </c>
       <c r="I40" s="5">
         <v/>
@@ -2235,28 +2235,28 @@
     </row>
     <row r="41">
       <c r="A41" s="4">
-        <v>44081</v>
+        <v>44116</v>
       </c>
       <c r="B41" s="4">
-        <v>44087</v>
+        <v>44122</v>
       </c>
       <c r="C41" s="5">
-        <v>5143.300000000004</v>
+        <v>5015.600000000007</v>
       </c>
       <c r="D41" s="6">
-        <v>607</v>
+        <v>746</v>
       </c>
       <c r="E41" s="5">
-        <v>4069.2000000000035</v>
+        <v>5398.300000000001</v>
       </c>
       <c r="F41" s="5">
-        <v>1074.1000000000004</v>
+        <v>-382.69999999999436</v>
       </c>
       <c r="G41" s="5">
-        <v>4069.2000000000035</v>
+        <v>5398.300000000001</v>
       </c>
       <c r="H41" s="6">
-        <v>590</v>
+        <v>694</v>
       </c>
       <c r="I41" s="5">
         <v/>
@@ -2279,28 +2279,28 @@
     </row>
     <row r="42">
       <c r="A42" s="4">
-        <v>44074</v>
+        <v>44109</v>
       </c>
       <c r="B42" s="4">
-        <v>44080</v>
+        <v>44115</v>
       </c>
       <c r="C42" s="5">
-        <v>3117.9999999999977</v>
+        <v>982.3000000000001</v>
       </c>
       <c r="D42" s="6">
-        <v>439</v>
+        <v>149</v>
       </c>
       <c r="E42" s="5">
-        <v>2826</v>
+        <v>1720.7000000000003</v>
       </c>
       <c r="F42" s="5">
-        <v>291.9999999999977</v>
+        <v>-738.4000000000002</v>
       </c>
       <c r="G42" s="5">
-        <v>2826</v>
+        <v>1720.7000000000003</v>
       </c>
       <c r="H42" s="6">
-        <v>511</v>
+        <v>402</v>
       </c>
       <c r="I42" s="5">
         <v/>
@@ -2323,28 +2323,28 @@
     </row>
     <row r="43">
       <c r="A43" s="4">
-        <v>44067</v>
+        <v>44102</v>
       </c>
       <c r="B43" s="4">
-        <v>44073</v>
+        <v>44108</v>
       </c>
       <c r="C43" s="5">
-        <v>3573.300000000004</v>
+        <v>1094.0999999999997</v>
       </c>
       <c r="D43" s="6">
-        <v>597</v>
+        <v>216</v>
       </c>
       <c r="E43" s="5">
-        <v>4465.700000000003</v>
+        <v>2075.100000000001</v>
       </c>
       <c r="F43" s="5">
-        <v>-892.3999999999987</v>
+        <v>-981.0000000000011</v>
       </c>
       <c r="G43" s="5">
-        <v>4465.700000000003</v>
+        <v>2075.100000000001</v>
       </c>
       <c r="H43" s="6">
-        <v>679</v>
+        <v>329</v>
       </c>
       <c r="I43" s="5">
         <v/>
@@ -2367,28 +2367,28 @@
     </row>
     <row r="44">
       <c r="A44" s="4">
-        <v>44060</v>
+        <v>44095</v>
       </c>
       <c r="B44" s="4">
-        <v>44066</v>
+        <v>44101</v>
       </c>
       <c r="C44" s="5">
-        <v>5021.999999999999</v>
+        <v>3427.9000000000024</v>
       </c>
       <c r="D44" s="6">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="E44" s="5">
-        <v>4483.500000000005</v>
+        <v>3455.700000000001</v>
       </c>
       <c r="F44" s="5">
-        <v>538.4999999999945</v>
+        <v>-27.799999999998818</v>
       </c>
       <c r="G44" s="5">
-        <v>4483.500000000005</v>
+        <v>3455.700000000001</v>
       </c>
       <c r="H44" s="6">
-        <v>692</v>
+        <v>556</v>
       </c>
       <c r="I44" s="5">
         <v/>
@@ -2411,28 +2411,28 @@
     </row>
     <row r="45">
       <c r="A45" s="4">
-        <v>44053</v>
+        <v>44088</v>
       </c>
       <c r="B45" s="4">
-        <v>44059</v>
+        <v>44094</v>
       </c>
       <c r="C45" s="5">
-        <v>3919.1000000000017</v>
+        <v>5120.700000000004</v>
       </c>
       <c r="D45" s="6">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="E45" s="5">
-        <v>4001.6000000000017</v>
+        <v>4355.599999999999</v>
       </c>
       <c r="F45" s="5">
-        <v>-82.5</v>
+        <v>765.1000000000049</v>
       </c>
       <c r="G45" s="5">
-        <v>4001.6000000000017</v>
+        <v>4355.599999999999</v>
       </c>
       <c r="H45" s="6">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="I45" s="5">
         <v/>
@@ -2455,28 +2455,28 @@
     </row>
     <row r="46">
       <c r="A46" s="4">
-        <v>44046</v>
+        <v>44081</v>
       </c>
       <c r="B46" s="4">
-        <v>44052</v>
+        <v>44087</v>
       </c>
       <c r="C46" s="5">
-        <v>5963.699999999999</v>
+        <v>5143.300000000004</v>
       </c>
       <c r="D46" s="6">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E46" s="5">
-        <v>3240.300000000002</v>
+        <v>4069.2000000000035</v>
       </c>
       <c r="F46" s="5">
-        <v>2723.399999999997</v>
+        <v>1074.1000000000004</v>
       </c>
       <c r="G46" s="5">
-        <v>3240.300000000002</v>
+        <v>4069.2000000000035</v>
       </c>
       <c r="H46" s="6">
-        <v>502</v>
+        <v>590</v>
       </c>
       <c r="I46" s="5">
         <v/>
@@ -2499,28 +2499,28 @@
     </row>
     <row r="47">
       <c r="A47" s="4">
-        <v>44039</v>
+        <v>44074</v>
       </c>
       <c r="B47" s="4">
-        <v>44045</v>
+        <v>44080</v>
       </c>
       <c r="C47" s="5">
-        <v>5050.300000000004</v>
+        <v>3117.9999999999977</v>
       </c>
       <c r="D47" s="6">
-        <v>490</v>
+        <v>439</v>
       </c>
       <c r="E47" s="5">
-        <v>2840.900000000001</v>
+        <v>2826</v>
       </c>
       <c r="F47" s="5">
-        <v>2209.400000000003</v>
+        <v>291.9999999999977</v>
       </c>
       <c r="G47" s="5">
-        <v>2840.900000000001</v>
+        <v>2826</v>
       </c>
       <c r="H47" s="6">
-        <v>386</v>
+        <v>511</v>
       </c>
       <c r="I47" s="5">
         <v/>
@@ -2543,28 +2543,28 @@
     </row>
     <row r="48">
       <c r="A48" s="4">
-        <v>44032</v>
+        <v>44067</v>
       </c>
       <c r="B48" s="4">
-        <v>44038</v>
+        <v>44073</v>
       </c>
       <c r="C48" s="5">
-        <v>6937.599999999999</v>
+        <v>3573.300000000004</v>
       </c>
       <c r="D48" s="6">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="E48" s="5">
-        <v>3437.3999999999996</v>
+        <v>4465.700000000003</v>
       </c>
       <c r="F48" s="5">
-        <v>3500.2</v>
+        <v>-892.3999999999987</v>
       </c>
       <c r="G48" s="5">
-        <v>3437.3999999999996</v>
+        <v>4465.700000000003</v>
       </c>
       <c r="H48" s="6">
-        <v>539</v>
+        <v>679</v>
       </c>
       <c r="I48" s="5">
         <v/>
@@ -2587,28 +2587,28 @@
     </row>
     <row r="49">
       <c r="A49" s="4">
-        <v>44025</v>
+        <v>44060</v>
       </c>
       <c r="B49" s="4">
-        <v>44031</v>
+        <v>44066</v>
       </c>
       <c r="C49" s="5">
-        <v>2164.5</v>
+        <v>5022</v>
       </c>
       <c r="D49" s="6">
-        <v>422</v>
+        <v>611</v>
       </c>
       <c r="E49" s="5">
-        <v>2994.100000000002</v>
+        <v>4483.500000000005</v>
       </c>
       <c r="F49" s="5">
-        <v>-829.6000000000022</v>
+        <v>538.4999999999955</v>
       </c>
       <c r="G49" s="5">
-        <v>2994.100000000002</v>
+        <v>4483.500000000005</v>
       </c>
       <c r="H49" s="6">
-        <v>505</v>
+        <v>692</v>
       </c>
       <c r="I49" s="5">
         <v/>
@@ -2631,28 +2631,28 @@
     </row>
     <row r="50">
       <c r="A50" s="4">
-        <v>44018</v>
+        <v>44053</v>
       </c>
       <c r="B50" s="4">
-        <v>44024</v>
+        <v>44059</v>
       </c>
       <c r="C50" s="5">
-        <v>2165.299999999998</v>
+        <v>3919.1000000000017</v>
       </c>
       <c r="D50" s="6">
-        <v>491</v>
+        <v>636</v>
       </c>
       <c r="E50" s="5">
-        <v>1906.7999999999995</v>
+        <v>4001.6000000000017</v>
       </c>
       <c r="F50" s="5">
-        <v>258.4999999999984</v>
+        <v>-82.5</v>
       </c>
       <c r="G50" s="5">
-        <v>1906.7999999999995</v>
+        <v>4001.6000000000017</v>
       </c>
       <c r="H50" s="6">
-        <v>437</v>
+        <v>611</v>
       </c>
       <c r="I50" s="5">
         <v/>
@@ -2675,28 +2675,28 @@
     </row>
     <row r="51">
       <c r="A51" s="4">
-        <v>44011</v>
+        <v>44046</v>
       </c>
       <c r="B51" s="4">
-        <v>44017</v>
+        <v>44052</v>
       </c>
       <c r="C51" s="5">
-        <v>2628.500000000002</v>
+        <v>5963.699999999999</v>
       </c>
       <c r="D51" s="6">
-        <v>419</v>
+        <v>604</v>
       </c>
       <c r="E51" s="5">
-        <v>1897.899999999999</v>
+        <v>3240.300000000002</v>
       </c>
       <c r="F51" s="5">
-        <v>730.6000000000029</v>
+        <v>2723.399999999997</v>
       </c>
       <c r="G51" s="5">
-        <v>1897.899999999999</v>
+        <v>3240.300000000002</v>
       </c>
       <c r="H51" s="6">
-        <v>357</v>
+        <v>502</v>
       </c>
       <c r="I51" s="5">
         <v/>
@@ -2719,28 +2719,28 @@
     </row>
     <row r="52">
       <c r="A52" s="4">
-        <v>44004</v>
+        <v>44039</v>
       </c>
       <c r="B52" s="4">
-        <v>44010</v>
+        <v>44045</v>
       </c>
       <c r="C52" s="5">
-        <v>2812.400000000001</v>
+        <v>5050.300000000004</v>
       </c>
       <c r="D52" s="6">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="E52" s="5">
-        <v>2499.1000000000013</v>
+        <v>2840.900000000001</v>
       </c>
       <c r="F52" s="5">
-        <v>313.2999999999997</v>
+        <v>2209.400000000003</v>
       </c>
       <c r="G52" s="5">
-        <v>2499.1000000000013</v>
+        <v>2840.900000000001</v>
       </c>
       <c r="H52" s="6">
-        <v>548</v>
+        <v>386</v>
       </c>
       <c r="I52" s="5">
         <v/>
@@ -2763,28 +2763,28 @@
     </row>
     <row r="53">
       <c r="A53" s="4">
-        <v>43997</v>
+        <v>44032</v>
       </c>
       <c r="B53" s="4">
-        <v>44003</v>
+        <v>44038</v>
       </c>
       <c r="C53" s="5">
-        <v>5539.700000000002</v>
+        <v>6937.599999999999</v>
       </c>
       <c r="D53" s="6">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="E53" s="5">
-        <v>4315.200000000005</v>
+        <v>3437.3999999999996</v>
       </c>
       <c r="F53" s="5">
-        <v>1224.4999999999964</v>
+        <v>3500.2</v>
       </c>
       <c r="G53" s="5">
-        <v>4315.200000000005</v>
+        <v>3437.3999999999996</v>
       </c>
       <c r="H53" s="6">
-        <v>657</v>
+        <v>539</v>
       </c>
       <c r="I53" s="5">
         <v/>
@@ -2807,28 +2807,28 @@
     </row>
     <row r="54">
       <c r="A54" s="4">
-        <v>43990</v>
+        <v>44025</v>
       </c>
       <c r="B54" s="4">
-        <v>43996</v>
+        <v>44031</v>
       </c>
       <c r="C54" s="5">
-        <v>3329.600000000002</v>
+        <v>2164.5</v>
       </c>
       <c r="D54" s="6">
-        <v>531</v>
+        <v>422</v>
       </c>
       <c r="E54" s="5">
-        <v>3295.1000000000026</v>
+        <v>2994.100000000002</v>
       </c>
       <c r="F54" s="5">
-        <v>34.499999999999545</v>
+        <v>-829.6000000000022</v>
       </c>
       <c r="G54" s="5">
-        <v>3295.1000000000026</v>
+        <v>2994.100000000002</v>
       </c>
       <c r="H54" s="6">
-        <v>621</v>
+        <v>505</v>
       </c>
       <c r="I54" s="5">
         <v/>

--- a/【数据库更新】/专题数据/同业存单净融资量/cd.xlsx
+++ b/【数据库更新】/专题数据/同业存单净融资量/cd.xlsx
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -519,28 +519,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="B2" s="4">
-        <v>44395</v>
+        <v>44402</v>
       </c>
       <c r="C2" s="5">
-        <v>4598.800000000001</v>
+        <v>6517.100000000003</v>
       </c>
       <c r="D2" s="6">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E2" s="5">
-        <v>2759.5999999999995</v>
+        <v>5996.099999999998</v>
       </c>
       <c r="F2" s="5">
-        <v>1839.2000000000016</v>
+        <v>521.0000000000055</v>
       </c>
       <c r="G2" s="5">
-        <v>2759.5999999999995</v>
+        <v>5996.099999999998</v>
       </c>
       <c r="H2" s="6">
-        <v>569</v>
+        <v>681</v>
       </c>
       <c r="I2" s="5">
         <v/>
@@ -563,28 +563,28 @@
     </row>
     <row r="3">
       <c r="A3" s="4">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="B3" s="4">
-        <v>44388</v>
+        <v>44395</v>
       </c>
       <c r="C3" s="5">
-        <v>3460.0000000000014</v>
+        <v>4549.700000000002</v>
       </c>
       <c r="D3" s="6">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="E3" s="5">
-        <v>2075.9999999999995</v>
+        <v>2759.5999999999995</v>
       </c>
       <c r="F3" s="5">
-        <v>1384.0000000000018</v>
+        <v>1790.1000000000022</v>
       </c>
       <c r="G3" s="5">
-        <v>2075.9999999999995</v>
+        <v>2759.5999999999995</v>
       </c>
       <c r="H3" s="6">
-        <v>407</v>
+        <v>569</v>
       </c>
       <c r="I3" s="5">
         <v/>
@@ -607,28 +607,28 @@
     </row>
     <row r="4">
       <c r="A4" s="4">
-        <v>44375</v>
+        <v>44382</v>
       </c>
       <c r="B4" s="4">
-        <v>44381</v>
+        <v>44388</v>
       </c>
       <c r="C4" s="5">
-        <v>1514.5000000000005</v>
+        <v>3319.0000000000014</v>
       </c>
       <c r="D4" s="6">
-        <v>356</v>
+        <v>607</v>
       </c>
       <c r="E4" s="5">
-        <v>2537.0000000000005</v>
+        <v>2075.9999999999995</v>
       </c>
       <c r="F4" s="5">
-        <v>-1022.5</v>
+        <v>1243.0000000000018</v>
       </c>
       <c r="G4" s="5">
-        <v>2537.0000000000005</v>
+        <v>2075.9999999999995</v>
       </c>
       <c r="H4" s="6">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="I4" s="5">
         <v/>
@@ -651,28 +651,28 @@
     </row>
     <row r="5">
       <c r="A5" s="4">
-        <v>44368</v>
+        <v>44375</v>
       </c>
       <c r="B5" s="4">
-        <v>44374</v>
+        <v>44381</v>
       </c>
       <c r="C5" s="5">
-        <v>4654.900000000002</v>
+        <v>1514.5000000000005</v>
       </c>
       <c r="D5" s="6">
-        <v>718</v>
+        <v>356</v>
       </c>
       <c r="E5" s="5">
-        <v>3093.600000000001</v>
+        <v>2537.0000000000005</v>
       </c>
       <c r="F5" s="5">
-        <v>1561.3000000000015</v>
+        <v>-1022.5</v>
       </c>
       <c r="G5" s="5">
-        <v>3093.600000000001</v>
+        <v>2537.0000000000005</v>
       </c>
       <c r="H5" s="6">
-        <v>541</v>
+        <v>398</v>
       </c>
       <c r="I5" s="5">
         <v/>
@@ -695,28 +695,28 @@
     </row>
     <row r="6">
       <c r="A6" s="4">
-        <v>44361</v>
+        <v>44368</v>
       </c>
       <c r="B6" s="4">
-        <v>44367</v>
+        <v>44374</v>
       </c>
       <c r="C6" s="5">
-        <v>2864.2000000000016</v>
+        <v>4654.900000000002</v>
       </c>
       <c r="D6" s="6">
-        <v>493</v>
+        <v>718</v>
       </c>
       <c r="E6" s="5">
-        <v>3951.6000000000017</v>
+        <v>3093.600000000001</v>
       </c>
       <c r="F6" s="5">
-        <v>-1087.4</v>
+        <v>1561.3000000000015</v>
       </c>
       <c r="G6" s="5">
-        <v>3951.6000000000017</v>
+        <v>3093.600000000001</v>
       </c>
       <c r="H6" s="6">
-        <v>603</v>
+        <v>541</v>
       </c>
       <c r="I6" s="5">
         <v/>
@@ -739,28 +739,28 @@
     </row>
     <row r="7">
       <c r="A7" s="4">
-        <v>44354</v>
+        <v>44361</v>
       </c>
       <c r="B7" s="4">
-        <v>44360</v>
+        <v>44367</v>
       </c>
       <c r="C7" s="5">
-        <v>2438.999999999999</v>
+        <v>2864.2000000000016</v>
       </c>
       <c r="D7" s="6">
-        <v>544</v>
+        <v>493</v>
       </c>
       <c r="E7" s="5">
-        <v>4894.999999999999</v>
+        <v>3951.6000000000017</v>
       </c>
       <c r="F7" s="5">
-        <v>-2456</v>
+        <v>-1087.4</v>
       </c>
       <c r="G7" s="5">
-        <v>4894.999999999999</v>
+        <v>3951.6000000000017</v>
       </c>
       <c r="H7" s="6">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="I7" s="5">
         <v/>
@@ -783,28 +783,28 @@
     </row>
     <row r="8">
       <c r="A8" s="4">
-        <v>44347</v>
+        <v>44354</v>
       </c>
       <c r="B8" s="4">
-        <v>44353</v>
+        <v>44360</v>
       </c>
       <c r="C8" s="5">
-        <v>3482.700000000001</v>
+        <v>2438.999999999999</v>
       </c>
       <c r="D8" s="6">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="E8" s="5">
-        <v>2600.9999999999995</v>
+        <v>4894.999999999999</v>
       </c>
       <c r="F8" s="5">
-        <v>881.7000000000016</v>
+        <v>-2456</v>
       </c>
       <c r="G8" s="5">
-        <v>2600.9999999999995</v>
+        <v>4894.999999999999</v>
       </c>
       <c r="H8" s="6">
-        <v>507</v>
+        <v>642</v>
       </c>
       <c r="I8" s="5">
         <v/>
@@ -827,28 +827,28 @@
     </row>
     <row r="9">
       <c r="A9" s="4">
-        <v>44340</v>
+        <v>44347</v>
       </c>
       <c r="B9" s="4">
-        <v>44346</v>
+        <v>44353</v>
       </c>
       <c r="C9" s="5">
-        <v>4155.500000000005</v>
+        <v>3482.700000000001</v>
       </c>
       <c r="D9" s="6">
-        <v>650</v>
+        <v>532</v>
       </c>
       <c r="E9" s="5">
-        <v>4913.600000000001</v>
+        <v>2600.9999999999995</v>
       </c>
       <c r="F9" s="5">
-        <v>-758.0999999999967</v>
+        <v>881.7000000000016</v>
       </c>
       <c r="G9" s="5">
-        <v>4913.600000000001</v>
+        <v>2600.9999999999995</v>
       </c>
       <c r="H9" s="6">
-        <v>663</v>
+        <v>507</v>
       </c>
       <c r="I9" s="5">
         <v/>
@@ -871,28 +871,28 @@
     </row>
     <row r="10">
       <c r="A10" s="4">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B10" s="4">
-        <v>44339</v>
+        <v>44346</v>
       </c>
       <c r="C10" s="5">
-        <v>6248.400000000002</v>
+        <v>4155.500000000005</v>
       </c>
       <c r="D10" s="6">
-        <v>704</v>
+        <v>650</v>
       </c>
       <c r="E10" s="5">
-        <v>4419.199999999998</v>
+        <v>4913.600000000001</v>
       </c>
       <c r="F10" s="5">
-        <v>1829.2000000000044</v>
+        <v>-758.0999999999967</v>
       </c>
       <c r="G10" s="5">
-        <v>4419.199999999998</v>
+        <v>4913.600000000001</v>
       </c>
       <c r="H10" s="6">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="I10" s="5">
         <v/>
@@ -915,28 +915,28 @@
     </row>
     <row r="11">
       <c r="A11" s="4">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B11" s="4">
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="C11" s="5">
-        <v>5391.200000000002</v>
+        <v>6248.400000000002</v>
       </c>
       <c r="D11" s="6">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="E11" s="5">
-        <v>4883.3</v>
+        <v>4419.199999999998</v>
       </c>
       <c r="F11" s="5">
-        <v>507.90000000000146</v>
+        <v>1829.2000000000044</v>
       </c>
       <c r="G11" s="5">
-        <v>4883.3</v>
+        <v>4419.199999999998</v>
       </c>
       <c r="H11" s="6">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="I11" s="5">
         <v/>
@@ -959,28 +959,28 @@
     </row>
     <row r="12">
       <c r="A12" s="4">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B12" s="4">
-        <v>44325</v>
+        <v>44332</v>
       </c>
       <c r="C12" s="5">
-        <v>2155.4000000000005</v>
+        <v>5391.200000000002</v>
       </c>
       <c r="D12" s="6">
-        <v>326</v>
+        <v>686</v>
       </c>
       <c r="E12" s="5">
-        <v>1966.6</v>
+        <v>4883.3</v>
       </c>
       <c r="F12" s="5">
-        <v>188.80000000000064</v>
+        <v>507.90000000000146</v>
       </c>
       <c r="G12" s="5">
-        <v>1966.6</v>
+        <v>4883.3</v>
       </c>
       <c r="H12" s="6">
-        <v>514</v>
+        <v>607</v>
       </c>
       <c r="I12" s="5">
         <v/>
@@ -1003,28 +1003,28 @@
     </row>
     <row r="13">
       <c r="A13" s="4">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B13" s="4">
-        <v>44318</v>
+        <v>44325</v>
       </c>
       <c r="C13" s="5">
-        <v>3456.000000000003</v>
+        <v>2155.4000000000005</v>
       </c>
       <c r="D13" s="6">
-        <v>483</v>
+        <v>326</v>
       </c>
       <c r="E13" s="5">
-        <v>6193.200000000002</v>
+        <v>1966.6</v>
       </c>
       <c r="F13" s="5">
-        <v>-2737.1999999999985</v>
+        <v>188.80000000000064</v>
       </c>
       <c r="G13" s="5">
-        <v>6193.200000000002</v>
+        <v>1966.6</v>
       </c>
       <c r="H13" s="6">
-        <v>580</v>
+        <v>514</v>
       </c>
       <c r="I13" s="5">
         <v/>
@@ -1047,28 +1047,28 @@
     </row>
     <row r="14">
       <c r="A14" s="4">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B14" s="4">
-        <v>44311</v>
+        <v>44318</v>
       </c>
       <c r="C14" s="5">
-        <v>6382.4</v>
+        <v>3456.000000000003</v>
       </c>
       <c r="D14" s="6">
-        <v>737</v>
+        <v>483</v>
       </c>
       <c r="E14" s="5">
-        <v>4632.7000000000035</v>
+        <v>6193.200000000002</v>
       </c>
       <c r="F14" s="5">
-        <v>1749.6999999999962</v>
+        <v>-2737.1999999999985</v>
       </c>
       <c r="G14" s="5">
-        <v>4632.7000000000035</v>
+        <v>6193.200000000002</v>
       </c>
       <c r="H14" s="6">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="I14" s="5">
         <v/>
@@ -1091,28 +1091,28 @@
     </row>
     <row r="15">
       <c r="A15" s="4">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B15" s="4">
-        <v>44304</v>
+        <v>44311</v>
       </c>
       <c r="C15" s="5">
-        <v>5474.100000000001</v>
+        <v>6382.4</v>
       </c>
       <c r="D15" s="6">
-        <v>653</v>
+        <v>737</v>
       </c>
       <c r="E15" s="5">
-        <v>2927.2000000000016</v>
+        <v>4632.7000000000035</v>
       </c>
       <c r="F15" s="5">
-        <v>2546.8999999999996</v>
+        <v>1749.6999999999962</v>
       </c>
       <c r="G15" s="5">
-        <v>2927.2000000000016</v>
+        <v>4632.7000000000035</v>
       </c>
       <c r="H15" s="6">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="I15" s="5">
         <v/>
@@ -1135,28 +1135,28 @@
     </row>
     <row r="16">
       <c r="A16" s="4">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B16" s="4">
-        <v>44297</v>
+        <v>44304</v>
       </c>
       <c r="C16" s="5">
-        <v>4372.000000000001</v>
+        <v>5474.100000000001</v>
       </c>
       <c r="D16" s="6">
-        <v>561</v>
+        <v>653</v>
       </c>
       <c r="E16" s="5">
-        <v>2625.9000000000015</v>
+        <v>2927.2000000000016</v>
       </c>
       <c r="F16" s="5">
-        <v>1746.0999999999995</v>
+        <v>2546.8999999999996</v>
       </c>
       <c r="G16" s="5">
-        <v>2625.9000000000015</v>
+        <v>2927.2000000000016</v>
       </c>
       <c r="H16" s="6">
-        <v>373</v>
+        <v>607</v>
       </c>
       <c r="I16" s="5">
         <v/>
@@ -1179,28 +1179,28 @@
     </row>
     <row r="17">
       <c r="A17" s="4">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B17" s="4">
-        <v>44290</v>
+        <v>44297</v>
       </c>
       <c r="C17" s="5">
-        <v>2601.4000000000033</v>
+        <v>4372.000000000001</v>
       </c>
       <c r="D17" s="6">
-        <v>471</v>
+        <v>561</v>
       </c>
       <c r="E17" s="5">
-        <v>1769.9999999999982</v>
+        <v>2625.9000000000015</v>
       </c>
       <c r="F17" s="5">
-        <v>831.4000000000051</v>
+        <v>1746.0999999999995</v>
       </c>
       <c r="G17" s="5">
-        <v>1769.9999999999982</v>
+        <v>2625.9000000000015</v>
       </c>
       <c r="H17" s="6">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="I17" s="5">
         <v/>
@@ -1223,28 +1223,28 @@
     </row>
     <row r="18">
       <c r="A18" s="4">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B18" s="4">
-        <v>44283</v>
+        <v>44290</v>
       </c>
       <c r="C18" s="5">
-        <v>3960.900000000002</v>
+        <v>2601.4000000000033</v>
       </c>
       <c r="D18" s="6">
-        <v>663</v>
+        <v>471</v>
       </c>
       <c r="E18" s="5">
-        <v>4012.300000000001</v>
+        <v>1769.9999999999982</v>
       </c>
       <c r="F18" s="5">
-        <v>-51.39999999999918</v>
+        <v>831.4000000000051</v>
       </c>
       <c r="G18" s="5">
-        <v>4012.300000000001</v>
+        <v>1769.9999999999982</v>
       </c>
       <c r="H18" s="6">
-        <v>638</v>
+        <v>363</v>
       </c>
       <c r="I18" s="5">
         <v/>
@@ -1267,28 +1267,28 @@
     </row>
     <row r="19">
       <c r="A19" s="4">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B19" s="4">
-        <v>44276</v>
+        <v>44283</v>
       </c>
       <c r="C19" s="5">
-        <v>4782.800000000003</v>
+        <v>3960.900000000002</v>
       </c>
       <c r="D19" s="6">
-        <v>696</v>
+        <v>663</v>
       </c>
       <c r="E19" s="5">
-        <v>6017.500000000003</v>
+        <v>4012.300000000001</v>
       </c>
       <c r="F19" s="5">
-        <v>-1234.6999999999998</v>
+        <v>-51.39999999999918</v>
       </c>
       <c r="G19" s="5">
-        <v>6017.500000000003</v>
+        <v>4012.300000000001</v>
       </c>
       <c r="H19" s="6">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="I19" s="5">
         <v/>
@@ -1311,28 +1311,28 @@
     </row>
     <row r="20">
       <c r="A20" s="4">
-        <v>44263</v>
+        <v>44270</v>
       </c>
       <c r="B20" s="4">
-        <v>44269</v>
+        <v>44276</v>
       </c>
       <c r="C20" s="5">
-        <v>7171.600000000007</v>
+        <v>4782.800000000003</v>
       </c>
       <c r="D20" s="6">
-        <v>863</v>
+        <v>696</v>
       </c>
       <c r="E20" s="5">
-        <v>5179.2</v>
+        <v>6017.500000000003</v>
       </c>
       <c r="F20" s="5">
-        <v>1992.400000000007</v>
+        <v>-1234.6999999999998</v>
       </c>
       <c r="G20" s="5">
-        <v>5179.2</v>
+        <v>6017.500000000003</v>
       </c>
       <c r="H20" s="6">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I20" s="5">
         <v/>
@@ -1355,28 +1355,28 @@
     </row>
     <row r="21">
       <c r="A21" s="4">
-        <v>44256</v>
+        <v>44263</v>
       </c>
       <c r="B21" s="4">
-        <v>44262</v>
+        <v>44269</v>
       </c>
       <c r="C21" s="5">
-        <v>7201.500000000007</v>
+        <v>7171.600000000007</v>
       </c>
       <c r="D21" s="6">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="E21" s="5">
-        <v>4278.999999999999</v>
+        <v>5179.2</v>
       </c>
       <c r="F21" s="5">
-        <v>2922.500000000008</v>
+        <v>1992.400000000007</v>
       </c>
       <c r="G21" s="5">
-        <v>4278.999999999999</v>
+        <v>5179.2</v>
       </c>
       <c r="H21" s="6">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="I21" s="5">
         <v/>
@@ -1399,28 +1399,28 @@
     </row>
     <row r="22">
       <c r="A22" s="4">
-        <v>44249</v>
+        <v>44256</v>
       </c>
       <c r="B22" s="4">
-        <v>44255</v>
+        <v>44262</v>
       </c>
       <c r="C22" s="5">
-        <v>9986.500000000004</v>
+        <v>7201.500000000007</v>
       </c>
       <c r="D22" s="6">
-        <v>1005</v>
+        <v>879</v>
       </c>
       <c r="E22" s="5">
-        <v>4538.200000000003</v>
+        <v>4278.999999999999</v>
       </c>
       <c r="F22" s="5">
-        <v>5448.300000000001</v>
+        <v>2922.500000000008</v>
       </c>
       <c r="G22" s="5">
-        <v>4538.200000000003</v>
+        <v>4278.999999999999</v>
       </c>
       <c r="H22" s="6">
-        <v>735</v>
+        <v>597</v>
       </c>
       <c r="I22" s="5">
         <v/>
@@ -1443,28 +1443,28 @@
     </row>
     <row r="23">
       <c r="A23" s="4">
-        <v>44242</v>
+        <v>44249</v>
       </c>
       <c r="B23" s="4">
-        <v>44248</v>
+        <v>44255</v>
       </c>
       <c r="C23" s="5">
-        <v>2658.1</v>
+        <v>9986.500000000004</v>
       </c>
       <c r="D23" s="6">
-        <v>418</v>
+        <v>1005</v>
       </c>
       <c r="E23" s="5">
-        <v>3391.8999999999996</v>
+        <v>4538.200000000003</v>
       </c>
       <c r="F23" s="5">
-        <v>-733.7999999999997</v>
+        <v>5448.300000000001</v>
       </c>
       <c r="G23" s="5">
-        <v>3391.8999999999996</v>
+        <v>4538.200000000003</v>
       </c>
       <c r="H23" s="6">
-        <v>530</v>
+        <v>735</v>
       </c>
       <c r="I23" s="5">
         <v/>
@@ -1487,28 +1487,28 @@
     </row>
     <row r="24">
       <c r="A24" s="4">
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="B24" s="4">
-        <v>44241</v>
+        <v>44248</v>
       </c>
       <c r="C24" s="5">
-        <v>4218.899999999999</v>
+        <v>2658.1</v>
       </c>
       <c r="D24" s="6">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="E24" s="5">
-        <v>3117.9000000000005</v>
+        <v>3391.8999999999996</v>
       </c>
       <c r="F24" s="5">
-        <v>1100.9999999999982</v>
+        <v>-733.7999999999997</v>
       </c>
       <c r="G24" s="5">
-        <v>3117.9000000000005</v>
+        <v>3391.8999999999996</v>
       </c>
       <c r="H24" s="6">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="I24" s="5">
         <v/>
@@ -1531,28 +1531,28 @@
     </row>
     <row r="25">
       <c r="A25" s="4">
-        <v>44228</v>
+        <v>44235</v>
       </c>
       <c r="B25" s="4">
-        <v>44234</v>
+        <v>44241</v>
       </c>
       <c r="C25" s="5">
-        <v>2698.700000000001</v>
+        <v>4218.899999999999</v>
       </c>
       <c r="D25" s="6">
-        <v>587</v>
+        <v>380</v>
       </c>
       <c r="E25" s="5">
-        <v>4177.500000000002</v>
+        <v>3117.9000000000005</v>
       </c>
       <c r="F25" s="5">
-        <v>-1478.8000000000006</v>
+        <v>1100.9999999999982</v>
       </c>
       <c r="G25" s="5">
-        <v>4177.500000000002</v>
+        <v>3117.9000000000005</v>
       </c>
       <c r="H25" s="6">
-        <v>392</v>
+        <v>474</v>
       </c>
       <c r="I25" s="5">
         <v/>
@@ -1575,25 +1575,25 @@
     </row>
     <row r="26">
       <c r="A26" s="4">
-        <v>44221</v>
+        <v>44228</v>
       </c>
       <c r="B26" s="4">
-        <v>44227</v>
+        <v>44234</v>
       </c>
       <c r="C26" s="5">
-        <v>4074.3999999999996</v>
+        <v>2698.700000000001</v>
       </c>
       <c r="D26" s="6">
-        <v>404</v>
+        <v>587</v>
       </c>
       <c r="E26" s="5">
-        <v>3024.4999999999995</v>
+        <v>4177.500000000002</v>
       </c>
       <c r="F26" s="5">
-        <v>1049.9</v>
+        <v>-1478.8000000000006</v>
       </c>
       <c r="G26" s="5">
-        <v>3024.4999999999995</v>
+        <v>4177.500000000002</v>
       </c>
       <c r="H26" s="6">
         <v>392</v>
@@ -1619,28 +1619,28 @@
     </row>
     <row r="27">
       <c r="A27" s="4">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="B27" s="4">
-        <v>44220</v>
+        <v>44227</v>
       </c>
       <c r="C27" s="5">
-        <v>3066.999999999998</v>
+        <v>4074.3999999999996</v>
       </c>
       <c r="D27" s="6">
-        <v>539</v>
+        <v>404</v>
       </c>
       <c r="E27" s="5">
-        <v>4327.500000000002</v>
+        <v>3024.4999999999995</v>
       </c>
       <c r="F27" s="5">
-        <v>-1260.5000000000036</v>
+        <v>1049.9</v>
       </c>
       <c r="G27" s="5">
-        <v>4327.500000000002</v>
+        <v>3024.4999999999995</v>
       </c>
       <c r="H27" s="6">
-        <v>528</v>
+        <v>392</v>
       </c>
       <c r="I27" s="5">
         <v/>
@@ -1663,28 +1663,28 @@
     </row>
     <row r="28">
       <c r="A28" s="4">
-        <v>44207</v>
+        <v>44214</v>
       </c>
       <c r="B28" s="4">
-        <v>44213</v>
+        <v>44220</v>
       </c>
       <c r="C28" s="5">
-        <v>2700.3</v>
+        <v>3066.999999999998</v>
       </c>
       <c r="D28" s="6">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="E28" s="5">
-        <v>2655.3999999999983</v>
+        <v>4327.500000000002</v>
       </c>
       <c r="F28" s="5">
-        <v>44.90000000000191</v>
+        <v>-1260.5000000000036</v>
       </c>
       <c r="G28" s="5">
-        <v>2655.3999999999983</v>
+        <v>4327.500000000002</v>
       </c>
       <c r="H28" s="6">
-        <v>421</v>
+        <v>528</v>
       </c>
       <c r="I28" s="5">
         <v/>
@@ -1707,28 +1707,28 @@
     </row>
     <row r="29">
       <c r="A29" s="4">
-        <v>44200</v>
+        <v>44207</v>
       </c>
       <c r="B29" s="4">
-        <v>44206</v>
+        <v>44213</v>
       </c>
       <c r="C29" s="5">
-        <v>1711.2000000000007</v>
+        <v>2700.3</v>
       </c>
       <c r="D29" s="6">
-        <v>213</v>
+        <v>569</v>
       </c>
       <c r="E29" s="5">
-        <v>1507.7</v>
+        <v>2655.3999999999983</v>
       </c>
       <c r="F29" s="5">
-        <v>203.50000000000068</v>
+        <v>44.90000000000191</v>
       </c>
       <c r="G29" s="5">
-        <v>1507.7</v>
+        <v>2655.3999999999983</v>
       </c>
       <c r="H29" s="6">
-        <v>245</v>
+        <v>421</v>
       </c>
       <c r="I29" s="5">
         <v/>
@@ -1751,28 +1751,28 @@
     </row>
     <row r="30">
       <c r="A30" s="4">
-        <v>44193</v>
+        <v>44200</v>
       </c>
       <c r="B30" s="4">
-        <v>44199</v>
+        <v>44206</v>
       </c>
       <c r="C30" s="5">
-        <v>1351.1</v>
+        <v>1711.2000000000007</v>
       </c>
       <c r="D30" s="6">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="E30" s="5">
-        <v>1647.0000000000002</v>
+        <v>1507.7</v>
       </c>
       <c r="F30" s="5">
-        <v>-295.9000000000003</v>
+        <v>203.50000000000068</v>
       </c>
       <c r="G30" s="5">
-        <v>1647.0000000000002</v>
+        <v>1507.7</v>
       </c>
       <c r="H30" s="6">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="I30" s="5">
         <v/>
@@ -1795,28 +1795,28 @@
     </row>
     <row r="31">
       <c r="A31" s="4">
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="B31" s="4">
-        <v>44192</v>
+        <v>44199</v>
       </c>
       <c r="C31" s="5">
-        <v>4193.400000000001</v>
+        <v>1351.1</v>
       </c>
       <c r="D31" s="6">
-        <v>594</v>
+        <v>277</v>
       </c>
       <c r="E31" s="5">
-        <v>3772.100000000003</v>
+        <v>1647.0000000000002</v>
       </c>
       <c r="F31" s="5">
-        <v>421.29999999999745</v>
+        <v>-295.9000000000003</v>
       </c>
       <c r="G31" s="5">
-        <v>3772.100000000003</v>
+        <v>1647.0000000000002</v>
       </c>
       <c r="H31" s="6">
-        <v>569</v>
+        <v>272</v>
       </c>
       <c r="I31" s="5">
         <v/>
@@ -1839,28 +1839,28 @@
     </row>
     <row r="32">
       <c r="A32" s="4">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="B32" s="4">
-        <v>44185</v>
+        <v>44192</v>
       </c>
       <c r="C32" s="5">
-        <v>3045.9000000000005</v>
+        <v>4193.400000000001</v>
       </c>
       <c r="D32" s="6">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="E32" s="5">
-        <v>5936.300000000004</v>
+        <v>3772.100000000003</v>
       </c>
       <c r="F32" s="5">
-        <v>-2890.4000000000033</v>
+        <v>421.29999999999745</v>
       </c>
       <c r="G32" s="5">
-        <v>5936.300000000004</v>
+        <v>3772.100000000003</v>
       </c>
       <c r="H32" s="6">
-        <v>642</v>
+        <v>569</v>
       </c>
       <c r="I32" s="5">
         <v/>
@@ -1883,28 +1883,28 @@
     </row>
     <row r="33">
       <c r="A33" s="4">
-        <v>44172</v>
+        <v>44179</v>
       </c>
       <c r="B33" s="4">
-        <v>44178</v>
+        <v>44185</v>
       </c>
       <c r="C33" s="5">
-        <v>8115.500000000001</v>
+        <v>3045.9000000000005</v>
       </c>
       <c r="D33" s="6">
-        <v>801</v>
+        <v>558</v>
       </c>
       <c r="E33" s="5">
-        <v>5332.900000000001</v>
+        <v>5936.300000000004</v>
       </c>
       <c r="F33" s="5">
-        <v>2782.6000000000004</v>
+        <v>-2890.4000000000033</v>
       </c>
       <c r="G33" s="5">
-        <v>5332.900000000001</v>
+        <v>5936.300000000004</v>
       </c>
       <c r="H33" s="6">
-        <v>692</v>
+        <v>642</v>
       </c>
       <c r="I33" s="5">
         <v/>
@@ -1927,28 +1927,28 @@
     </row>
     <row r="34">
       <c r="A34" s="4">
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="B34" s="4">
-        <v>44171</v>
+        <v>44178</v>
       </c>
       <c r="C34" s="5">
-        <v>4190.699999999997</v>
+        <v>8115.500000000001</v>
       </c>
       <c r="D34" s="6">
-        <v>645</v>
+        <v>801</v>
       </c>
       <c r="E34" s="5">
-        <v>3507.799999999998</v>
+        <v>5332.900000000001</v>
       </c>
       <c r="F34" s="5">
-        <v>682.8999999999992</v>
+        <v>2782.6000000000004</v>
       </c>
       <c r="G34" s="5">
-        <v>3507.799999999998</v>
+        <v>5332.900000000001</v>
       </c>
       <c r="H34" s="6">
-        <v>589</v>
+        <v>692</v>
       </c>
       <c r="I34" s="5">
         <v/>
@@ -1971,28 +1971,28 @@
     </row>
     <row r="35">
       <c r="A35" s="4">
-        <v>44158</v>
+        <v>44165</v>
       </c>
       <c r="B35" s="4">
-        <v>44164</v>
+        <v>44171</v>
       </c>
       <c r="C35" s="5">
-        <v>3458.7000000000007</v>
+        <v>4190.699999999997</v>
       </c>
       <c r="D35" s="6">
-        <v>675</v>
+        <v>645</v>
       </c>
       <c r="E35" s="5">
-        <v>3858.4000000000015</v>
+        <v>3507.799999999998</v>
       </c>
       <c r="F35" s="5">
-        <v>-399.7000000000007</v>
+        <v>682.8999999999992</v>
       </c>
       <c r="G35" s="5">
-        <v>3858.4000000000015</v>
+        <v>3507.799999999998</v>
       </c>
       <c r="H35" s="6">
-        <v>709</v>
+        <v>589</v>
       </c>
       <c r="I35" s="5">
         <v/>
@@ -2015,28 +2015,28 @@
     </row>
     <row r="36">
       <c r="A36" s="4">
-        <v>44151</v>
+        <v>44158</v>
       </c>
       <c r="B36" s="4">
-        <v>44157</v>
+        <v>44164</v>
       </c>
       <c r="C36" s="5">
-        <v>3826.0000000000005</v>
+        <v>3458.7000000000007</v>
       </c>
       <c r="D36" s="6">
-        <v>619</v>
+        <v>675</v>
       </c>
       <c r="E36" s="5">
-        <v>5209.399999999998</v>
+        <v>3858.4000000000015</v>
       </c>
       <c r="F36" s="5">
-        <v>-1383.3999999999974</v>
+        <v>-399.7000000000007</v>
       </c>
       <c r="G36" s="5">
-        <v>5209.399999999998</v>
+        <v>3858.4000000000015</v>
       </c>
       <c r="H36" s="6">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="I36" s="5">
         <v/>
@@ -2059,28 +2059,28 @@
     </row>
     <row r="37">
       <c r="A37" s="4">
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="B37" s="4">
-        <v>44150</v>
+        <v>44157</v>
       </c>
       <c r="C37" s="5">
-        <v>3898.999999999998</v>
+        <v>3826.0000000000005</v>
       </c>
       <c r="D37" s="6">
-        <v>696</v>
+        <v>619</v>
       </c>
       <c r="E37" s="5">
-        <v>5557.900000000002</v>
+        <v>5209.399999999998</v>
       </c>
       <c r="F37" s="5">
-        <v>-1658.9000000000042</v>
+        <v>-1383.3999999999974</v>
       </c>
       <c r="G37" s="5">
-        <v>5557.900000000002</v>
+        <v>5209.399999999998</v>
       </c>
       <c r="H37" s="6">
-        <v>791</v>
+        <v>735</v>
       </c>
       <c r="I37" s="5">
         <v/>
@@ -2103,28 +2103,28 @@
     </row>
     <row r="38">
       <c r="A38" s="4">
-        <v>44137</v>
+        <v>44144</v>
       </c>
       <c r="B38" s="4">
-        <v>44143</v>
+        <v>44150</v>
       </c>
       <c r="C38" s="5">
-        <v>5824.199999999999</v>
+        <v>3898.999999999998</v>
       </c>
       <c r="D38" s="6">
-        <v>769</v>
+        <v>696</v>
       </c>
       <c r="E38" s="5">
-        <v>3443.4000000000015</v>
+        <v>5557.900000000002</v>
       </c>
       <c r="F38" s="5">
-        <v>2380.7999999999975</v>
+        <v>-1658.9000000000042</v>
       </c>
       <c r="G38" s="5">
-        <v>3443.4000000000015</v>
+        <v>5557.900000000002</v>
       </c>
       <c r="H38" s="6">
-        <v>458</v>
+        <v>791</v>
       </c>
       <c r="I38" s="5">
         <v/>
@@ -2147,28 +2147,28 @@
     </row>
     <row r="39">
       <c r="A39" s="4">
-        <v>44130</v>
+        <v>44137</v>
       </c>
       <c r="B39" s="4">
-        <v>44136</v>
+        <v>44143</v>
       </c>
       <c r="C39" s="5">
-        <v>6692.100000000001</v>
+        <v>5824.199999999999</v>
       </c>
       <c r="D39" s="6">
-        <v>625</v>
+        <v>769</v>
       </c>
       <c r="E39" s="5">
-        <v>4418.800000000002</v>
+        <v>3443.4000000000015</v>
       </c>
       <c r="F39" s="5">
-        <v>2273.2999999999993</v>
+        <v>2380.7999999999975</v>
       </c>
       <c r="G39" s="5">
-        <v>4418.800000000002</v>
+        <v>3443.4000000000015</v>
       </c>
       <c r="H39" s="6">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="I39" s="5">
         <v/>
@@ -2191,28 +2191,28 @@
     </row>
     <row r="40">
       <c r="A40" s="4">
-        <v>44123</v>
+        <v>44130</v>
       </c>
       <c r="B40" s="4">
-        <v>44129</v>
+        <v>44136</v>
       </c>
       <c r="C40" s="5">
-        <v>6358.599999999997</v>
+        <v>6692.100000000001</v>
       </c>
       <c r="D40" s="6">
-        <v>845</v>
+        <v>625</v>
       </c>
       <c r="E40" s="5">
-        <v>7113.499999999999</v>
+        <v>4418.800000000002</v>
       </c>
       <c r="F40" s="5">
-        <v>-754.9000000000024</v>
+        <v>2273.2999999999993</v>
       </c>
       <c r="G40" s="5">
-        <v>7113.499999999999</v>
+        <v>4418.800000000002</v>
       </c>
       <c r="H40" s="6">
-        <v>708</v>
+        <v>462</v>
       </c>
       <c r="I40" s="5">
         <v/>
@@ -2235,28 +2235,28 @@
     </row>
     <row r="41">
       <c r="A41" s="4">
-        <v>44116</v>
+        <v>44123</v>
       </c>
       <c r="B41" s="4">
-        <v>44122</v>
+        <v>44129</v>
       </c>
       <c r="C41" s="5">
-        <v>5015.600000000007</v>
+        <v>6358.599999999997</v>
       </c>
       <c r="D41" s="6">
-        <v>746</v>
+        <v>845</v>
       </c>
       <c r="E41" s="5">
-        <v>5398.300000000001</v>
+        <v>7113.499999999999</v>
       </c>
       <c r="F41" s="5">
-        <v>-382.69999999999436</v>
+        <v>-754.9000000000024</v>
       </c>
       <c r="G41" s="5">
-        <v>5398.300000000001</v>
+        <v>7113.499999999999</v>
       </c>
       <c r="H41" s="6">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="I41" s="5">
         <v/>
@@ -2279,28 +2279,28 @@
     </row>
     <row r="42">
       <c r="A42" s="4">
-        <v>44109</v>
+        <v>44116</v>
       </c>
       <c r="B42" s="4">
-        <v>44115</v>
+        <v>44122</v>
       </c>
       <c r="C42" s="5">
-        <v>982.3000000000001</v>
+        <v>5015.600000000007</v>
       </c>
       <c r="D42" s="6">
-        <v>149</v>
+        <v>746</v>
       </c>
       <c r="E42" s="5">
-        <v>1720.7000000000003</v>
+        <v>5398.300000000001</v>
       </c>
       <c r="F42" s="5">
-        <v>-738.4000000000002</v>
+        <v>-382.69999999999436</v>
       </c>
       <c r="G42" s="5">
-        <v>1720.7000000000003</v>
+        <v>5398.300000000001</v>
       </c>
       <c r="H42" s="6">
-        <v>402</v>
+        <v>694</v>
       </c>
       <c r="I42" s="5">
         <v/>
@@ -2323,28 +2323,28 @@
     </row>
     <row r="43">
       <c r="A43" s="4">
-        <v>44102</v>
+        <v>44109</v>
       </c>
       <c r="B43" s="4">
-        <v>44108</v>
+        <v>44115</v>
       </c>
       <c r="C43" s="5">
-        <v>1094.0999999999997</v>
+        <v>982.3000000000001</v>
       </c>
       <c r="D43" s="6">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="E43" s="5">
-        <v>2075.100000000001</v>
+        <v>1720.7000000000003</v>
       </c>
       <c r="F43" s="5">
-        <v>-981.0000000000011</v>
+        <v>-738.4000000000002</v>
       </c>
       <c r="G43" s="5">
-        <v>2075.100000000001</v>
+        <v>1720.7000000000003</v>
       </c>
       <c r="H43" s="6">
-        <v>329</v>
+        <v>402</v>
       </c>
       <c r="I43" s="5">
         <v/>
@@ -2367,28 +2367,28 @@
     </row>
     <row r="44">
       <c r="A44" s="4">
-        <v>44095</v>
+        <v>44102</v>
       </c>
       <c r="B44" s="4">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="C44" s="5">
-        <v>3427.9000000000024</v>
+        <v>1094.0999999999997</v>
       </c>
       <c r="D44" s="6">
-        <v>588</v>
+        <v>216</v>
       </c>
       <c r="E44" s="5">
-        <v>3455.700000000001</v>
+        <v>2075.100000000001</v>
       </c>
       <c r="F44" s="5">
-        <v>-27.799999999998818</v>
+        <v>-981.0000000000011</v>
       </c>
       <c r="G44" s="5">
-        <v>3455.700000000001</v>
+        <v>2075.100000000001</v>
       </c>
       <c r="H44" s="6">
-        <v>556</v>
+        <v>329</v>
       </c>
       <c r="I44" s="5">
         <v/>
@@ -2411,28 +2411,28 @@
     </row>
     <row r="45">
       <c r="A45" s="4">
-        <v>44088</v>
+        <v>44095</v>
       </c>
       <c r="B45" s="4">
-        <v>44094</v>
+        <v>44101</v>
       </c>
       <c r="C45" s="5">
-        <v>5120.700000000004</v>
+        <v>3427.9000000000024</v>
       </c>
       <c r="D45" s="6">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="E45" s="5">
-        <v>4355.599999999999</v>
+        <v>3455.700000000001</v>
       </c>
       <c r="F45" s="5">
-        <v>765.1000000000049</v>
+        <v>-27.799999999998818</v>
       </c>
       <c r="G45" s="5">
-        <v>4355.599999999999</v>
+        <v>3455.700000000001</v>
       </c>
       <c r="H45" s="6">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="I45" s="5">
         <v/>
@@ -2455,28 +2455,28 @@
     </row>
     <row r="46">
       <c r="A46" s="4">
-        <v>44081</v>
+        <v>44088</v>
       </c>
       <c r="B46" s="4">
-        <v>44087</v>
+        <v>44094</v>
       </c>
       <c r="C46" s="5">
-        <v>5143.300000000004</v>
+        <v>5120.700000000004</v>
       </c>
       <c r="D46" s="6">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="E46" s="5">
-        <v>4069.2000000000035</v>
+        <v>4355.599999999999</v>
       </c>
       <c r="F46" s="5">
-        <v>1074.1000000000004</v>
+        <v>765.1000000000049</v>
       </c>
       <c r="G46" s="5">
-        <v>4069.2000000000035</v>
+        <v>4355.599999999999</v>
       </c>
       <c r="H46" s="6">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="I46" s="5">
         <v/>
@@ -2499,28 +2499,28 @@
     </row>
     <row r="47">
       <c r="A47" s="4">
-        <v>44074</v>
+        <v>44081</v>
       </c>
       <c r="B47" s="4">
-        <v>44080</v>
+        <v>44087</v>
       </c>
       <c r="C47" s="5">
-        <v>3117.9999999999977</v>
+        <v>5143.300000000004</v>
       </c>
       <c r="D47" s="6">
-        <v>439</v>
+        <v>607</v>
       </c>
       <c r="E47" s="5">
-        <v>2826</v>
+        <v>4069.2000000000035</v>
       </c>
       <c r="F47" s="5">
-        <v>291.9999999999977</v>
+        <v>1074.1000000000004</v>
       </c>
       <c r="G47" s="5">
-        <v>2826</v>
+        <v>4069.2000000000035</v>
       </c>
       <c r="H47" s="6">
-        <v>511</v>
+        <v>590</v>
       </c>
       <c r="I47" s="5">
         <v/>
@@ -2543,28 +2543,28 @@
     </row>
     <row r="48">
       <c r="A48" s="4">
-        <v>44067</v>
+        <v>44074</v>
       </c>
       <c r="B48" s="4">
-        <v>44073</v>
+        <v>44080</v>
       </c>
       <c r="C48" s="5">
-        <v>3573.300000000004</v>
+        <v>3117.9999999999977</v>
       </c>
       <c r="D48" s="6">
-        <v>597</v>
+        <v>439</v>
       </c>
       <c r="E48" s="5">
-        <v>4465.700000000003</v>
+        <v>2826</v>
       </c>
       <c r="F48" s="5">
-        <v>-892.3999999999987</v>
+        <v>291.9999999999977</v>
       </c>
       <c r="G48" s="5">
-        <v>4465.700000000003</v>
+        <v>2826</v>
       </c>
       <c r="H48" s="6">
-        <v>679</v>
+        <v>511</v>
       </c>
       <c r="I48" s="5">
         <v/>
@@ -2587,28 +2587,28 @@
     </row>
     <row r="49">
       <c r="A49" s="4">
-        <v>44060</v>
+        <v>44067</v>
       </c>
       <c r="B49" s="4">
-        <v>44066</v>
+        <v>44073</v>
       </c>
       <c r="C49" s="5">
-        <v>5022</v>
+        <v>3573.300000000004</v>
       </c>
       <c r="D49" s="6">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E49" s="5">
-        <v>4483.500000000005</v>
+        <v>4465.700000000003</v>
       </c>
       <c r="F49" s="5">
-        <v>538.4999999999955</v>
+        <v>-892.3999999999987</v>
       </c>
       <c r="G49" s="5">
-        <v>4483.500000000005</v>
+        <v>4465.700000000003</v>
       </c>
       <c r="H49" s="6">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="I49" s="5">
         <v/>
@@ -2631,28 +2631,28 @@
     </row>
     <row r="50">
       <c r="A50" s="4">
-        <v>44053</v>
+        <v>44060</v>
       </c>
       <c r="B50" s="4">
-        <v>44059</v>
+        <v>44066</v>
       </c>
       <c r="C50" s="5">
-        <v>3919.1000000000017</v>
+        <v>5022</v>
       </c>
       <c r="D50" s="6">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="E50" s="5">
-        <v>4001.6000000000017</v>
+        <v>4483.500000000005</v>
       </c>
       <c r="F50" s="5">
-        <v>-82.5</v>
+        <v>538.4999999999955</v>
       </c>
       <c r="G50" s="5">
-        <v>4001.6000000000017</v>
+        <v>4483.500000000005</v>
       </c>
       <c r="H50" s="6">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="I50" s="5">
         <v/>
@@ -2675,28 +2675,28 @@
     </row>
     <row r="51">
       <c r="A51" s="4">
-        <v>44046</v>
+        <v>44053</v>
       </c>
       <c r="B51" s="4">
-        <v>44052</v>
+        <v>44059</v>
       </c>
       <c r="C51" s="5">
-        <v>5963.699999999999</v>
+        <v>3919.1000000000017</v>
       </c>
       <c r="D51" s="6">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="E51" s="5">
-        <v>3240.300000000002</v>
+        <v>4001.6000000000017</v>
       </c>
       <c r="F51" s="5">
-        <v>2723.399999999997</v>
+        <v>-82.5</v>
       </c>
       <c r="G51" s="5">
-        <v>3240.300000000002</v>
+        <v>4001.6000000000017</v>
       </c>
       <c r="H51" s="6">
-        <v>502</v>
+        <v>611</v>
       </c>
       <c r="I51" s="5">
         <v/>
@@ -2719,28 +2719,28 @@
     </row>
     <row r="52">
       <c r="A52" s="4">
-        <v>44039</v>
+        <v>44046</v>
       </c>
       <c r="B52" s="4">
-        <v>44045</v>
+        <v>44052</v>
       </c>
       <c r="C52" s="5">
-        <v>5050.300000000004</v>
+        <v>5963.699999999999</v>
       </c>
       <c r="D52" s="6">
-        <v>490</v>
+        <v>604</v>
       </c>
       <c r="E52" s="5">
-        <v>2840.900000000001</v>
+        <v>3240.300000000002</v>
       </c>
       <c r="F52" s="5">
-        <v>2209.400000000003</v>
+        <v>2723.399999999997</v>
       </c>
       <c r="G52" s="5">
-        <v>2840.900000000001</v>
+        <v>3240.300000000002</v>
       </c>
       <c r="H52" s="6">
-        <v>386</v>
+        <v>502</v>
       </c>
       <c r="I52" s="5">
         <v/>
@@ -2763,28 +2763,28 @@
     </row>
     <row r="53">
       <c r="A53" s="4">
-        <v>44032</v>
+        <v>44039</v>
       </c>
       <c r="B53" s="4">
-        <v>44038</v>
+        <v>44045</v>
       </c>
       <c r="C53" s="5">
-        <v>6937.599999999999</v>
+        <v>5050.300000000004</v>
       </c>
       <c r="D53" s="6">
-        <v>572</v>
+        <v>490</v>
       </c>
       <c r="E53" s="5">
-        <v>3437.3999999999996</v>
+        <v>2840.900000000001</v>
       </c>
       <c r="F53" s="5">
-        <v>3500.2</v>
+        <v>2209.400000000003</v>
       </c>
       <c r="G53" s="5">
-        <v>3437.3999999999996</v>
+        <v>2840.900000000001</v>
       </c>
       <c r="H53" s="6">
-        <v>539</v>
+        <v>386</v>
       </c>
       <c r="I53" s="5">
         <v/>
@@ -2805,91 +2805,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="4">
-        <v>44025</v>
-      </c>
-      <c r="B54" s="4">
-        <v>44031</v>
-      </c>
-      <c r="C54" s="5">
-        <v>2164.5</v>
-      </c>
-      <c r="D54" s="6">
-        <v>422</v>
-      </c>
-      <c r="E54" s="5">
-        <v>2994.100000000002</v>
-      </c>
-      <c r="F54" s="5">
-        <v>-829.6000000000022</v>
-      </c>
-      <c r="G54" s="5">
-        <v>2994.100000000002</v>
-      </c>
-      <c r="H54" s="6">
-        <v>505</v>
-      </c>
-      <c r="I54" s="5">
-        <v/>
-      </c>
-      <c r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5">
-        <v/>
-      </c>
-      <c r="L54" s="6">
-        <v>0</v>
-      </c>
-      <c r="M54" s="5">
-        <v/>
-      </c>
-      <c r="N54" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="7" t="str">
+    <row r="55">
+      <c r="A55" s="7" t="str">
         <v>数据来源：Wind</v>
       </c>
-      <c r="B56" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C56" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D56" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E56" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F56" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G56" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H56" s="2" t="str">
-        <v/>
-      </c>
-      <c r="I56" s="2" t="str">
-        <v/>
-      </c>
-      <c r="J56" s="2" t="str">
-        <v/>
-      </c>
-      <c r="K56" s="2" t="str">
-        <v/>
-      </c>
-      <c r="L56" s="2" t="str">
-        <v/>
-      </c>
-      <c r="M56" s="2" t="str">
-        <v/>
-      </c>
-      <c r="N56" s="2" t="str">
+      <c r="B55" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C55" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D55" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G55" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H55" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I55" s="2" t="str">
+        <v/>
+      </c>
+      <c r="J55" s="2" t="str">
+        <v/>
+      </c>
+      <c r="K55" s="2" t="str">
+        <v/>
+      </c>
+      <c r="L55" s="2" t="str">
+        <v/>
+      </c>
+      <c r="M55" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N55" s="2" t="str">
         <v/>
       </c>
     </row>
